--- a/database/KNN/ORB_KNN.xlsx
+++ b/database/KNN/ORB_KNN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="29">
   <si>
     <t>ORB</t>
   </si>
@@ -115,12 +115,18 @@
   <si>
     <t>ORB has problem with blurred images</t>
   </si>
+  <si>
+    <t>images/distances</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +138,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -157,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,6 +186,26 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sift_resultats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="E7:O18" totalsRowShown="0">
+  <autoFilter ref="E7:O18"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Distance/images"/>
+    <tableColumn id="2" name="condame_orig"/>
+    <tableColumn id="3" name="condame_45"/>
+    <tableColumn id="4" name="condame_90"/>
+    <tableColumn id="5" name="condame_cropped"/>
+    <tableColumn id="6" name="life_orig"/>
+    <tableColumn id="7" name="malcomx_orig"/>
+    <tableColumn id="8" name="prayer_45"/>
+    <tableColumn id="9" name="prayer_blurred"/>
+    <tableColumn id="10" name="rose_90"/>
+    <tableColumn id="11" name="rose_blurred"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O331"/>
+  <dimension ref="A1:P331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -469,14 +504,16 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2319,7 +2356,7 @@
         <v>1.6999959945678701E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2449,7 @@
         <v>1.20000839233398E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2460,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2433,8 +2470,44 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="E53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="P53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -2444,8 +2517,44 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="E54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54">
+        <v>100</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="M54">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
+      <c r="O54">
+        <v>100</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2455,8 +2564,44 @@
       <c r="C55">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55">
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <v>23</v>
+      </c>
+      <c r="K55">
+        <v>30</v>
+      </c>
+      <c r="L55">
+        <v>38</v>
+      </c>
+      <c r="M55">
+        <v>46</v>
+      </c>
+      <c r="N55">
+        <v>59</v>
+      </c>
+      <c r="O55">
+        <v>76</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2466,8 +2611,44 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="E56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+      <c r="M56">
+        <v>100</v>
+      </c>
+      <c r="N56">
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <v>100</v>
+      </c>
+      <c r="P56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -2477,8 +2658,44 @@
       <c r="C57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="E57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>54</v>
+      </c>
+      <c r="G57">
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <v>60</v>
+      </c>
+      <c r="I57">
+        <v>62</v>
+      </c>
+      <c r="J57">
+        <v>65</v>
+      </c>
+      <c r="K57">
+        <v>67</v>
+      </c>
+      <c r="L57">
+        <v>70</v>
+      </c>
+      <c r="M57">
+        <v>74</v>
+      </c>
+      <c r="N57">
+        <v>79</v>
+      </c>
+      <c r="O57">
+        <v>86</v>
+      </c>
+      <c r="P57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2488,8 +2705,44 @@
       <c r="C58">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="E58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>23</v>
+      </c>
+      <c r="O58">
+        <v>51</v>
+      </c>
+      <c r="P58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -2499,8 +2752,44 @@
       <c r="C59">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="E59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>7</v>
+      </c>
+      <c r="N59">
+        <v>18</v>
+      </c>
+      <c r="O59">
+        <v>46</v>
+      </c>
+      <c r="P59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -2510,8 +2799,44 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="E60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>10</v>
+      </c>
+      <c r="N60">
+        <v>21</v>
+      </c>
+      <c r="O60">
+        <v>46</v>
+      </c>
+      <c r="P60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2521,8 +2846,44 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="E61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>100</v>
+      </c>
+      <c r="N61">
+        <v>833</v>
+      </c>
+      <c r="O61">
+        <v>4866</v>
+      </c>
+      <c r="P61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2532,8 +2893,44 @@
       <c r="C62">
         <v>9.0000629425048793E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="E62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>11</v>
+      </c>
+      <c r="N62">
+        <v>23</v>
+      </c>
+      <c r="O62">
+        <v>48</v>
+      </c>
+      <c r="P62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2543,8 +2940,44 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="E63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
+      <c r="M63">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>18</v>
+      </c>
+      <c r="O63">
+        <v>281</v>
+      </c>
+      <c r="P63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2553,6 +2986,53 @@
       </c>
       <c r="C64">
         <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64">
+        <f>AVERAGE(F54:F63)</f>
+        <v>25.9</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64:P64" si="1">AVERAGE(G54:G63)</f>
+        <v>26.6</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="1"/>
+        <v>27.2</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>28.1</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>30.3</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>46.7</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="1"/>
+        <v>127.4</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5495,6 +5975,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/database/KNN/ORB_KNN.xlsx
+++ b/database/KNN/ORB_KNN.xlsx
@@ -182,6 +182,51 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="https://lh3.googleusercontent.com/0wUeewtBFKcqRAU9WUCVhi4APizmg2bKPOiKVjcS3Umozfxug3ZXlcl-X2IxJ-Gq_ntQq7ahwr3uTym0aZStuhCyikptC7S22MsMCe4G9qXyk3tCMlc411EOWM-7xB-YalhXQSYD"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6200775" y="13716000"/>
+          <a:ext cx="6705600" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="D41" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3035,7 +3080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -3046,7 +3091,7 @@
         <v>9.9992752075195291E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -3057,7 +3102,7 @@
         <v>3.0000209808349601E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3068,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -3079,7 +3124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3090,7 +3135,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -3101,7 +3146,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -3111,8 +3156,41 @@
       <c r="C71">
         <v>1.6000032424926699E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="E71">
+        <v>1.5199995000000001E-2</v>
+      </c>
+      <c r="F71">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G71">
+        <v>1.50995E-2</v>
+      </c>
+      <c r="H71">
+        <v>1.6100300000000001E-2</v>
+      </c>
+      <c r="I71">
+        <v>9.2000199999999997E-3</v>
+      </c>
+      <c r="J71">
+        <v>8.8000100000000005E-3</v>
+      </c>
+      <c r="K71">
+        <v>8.7999800000000006E-3</v>
+      </c>
+      <c r="L71">
+        <v>1.749997E-2</v>
+      </c>
+      <c r="M71">
+        <v>8.6000399999999998E-3</v>
+      </c>
+      <c r="N71">
+        <v>6.3000199999999999E-3</v>
+      </c>
+      <c r="O71">
+        <v>1.7599988000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3123,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3212,7 @@
         <v>7.9998970031738195E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -3145,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -3167,7 +3245,7 @@
         <v>1.6000032424926699E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -3178,7 +3256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -3189,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>1</v>
       </c>
@@ -3200,7 +3278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5975,8 +6053,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
